--- a/openprescribing/dmd2/tests/data/bnf_code_mapping/mapping.xlsx
+++ b/openprescribing/dmd2/tests/data/bnf_code_mapping/mapping.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,7 +361,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>VMP / AMP</t>
+          <t>VMP / VMPP/ AMP / AMPP</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -386,7 +386,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>DM+D:Product and Pack Description</t>
+          <t>DM+D: Product and Pack Description</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -447,7 +447,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -779,7 +779,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -799,17 +799,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>'4744111000001109</t>
+          <t>'35894711000001106</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>Adenosine 6mg/2ml solution for injection vials</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Adenosine 6mg/2ml solution for injection 6 vials</t>
         </is>
       </c>
     </row>
@@ -821,7 +816,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -836,7 +831,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>'34516311000001106</t>
+          <t>'4744111000001109</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -846,46 +841,51 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Adenosine 6mg/2ml solution for injection 5 vials</t>
+          <t>Adenosine 6mg/2ml solution for injection 6 vials</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>'0203020C0BBAAAA</t>
+          <t>'0203020C0AAAAAA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Adenocor_I/V Inf 3mg/ml 2ml Vl</t>
+          <t>Adenosine_I/V Inf 3mg/ml 2ml Vl</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>'4744411000001104</t>
+          <t>'34516311000001106</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Adenocor 6mg/2ml solution for injection vials (Sanofi)</t>
+          <t>Adenosine 6mg/2ml solution for injection vials</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Adenosine 6mg/2ml solution for injection 5 vials</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -905,56 +905,56 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>'4744711000001105</t>
+          <t>'4744411000001104</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>Adenocor 6mg/2ml solution for injection vials (Sanofi)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Adenocor 6mg/2ml solution for injection (Sanofi) 6 vials</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>'0203020C0AAAAAA</t>
+          <t>'0203020C0BBAAAA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Adenosine_I/V Inf 3mg/ml 2ml Vl</t>
+          <t>Adenocor_I/V Inf 3mg/ml 2ml Vl</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>'19663311000001109</t>
+          <t>'4744711000001105</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Adenosine 6mg/2ml solution for injection vials (Wockhardt UK Ltd)</t>
+          <t>Adenocor 6mg/2ml solution for injection vials (Sanofi)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Adenocor 6mg/2ml solution for injection (Sanofi) 6 vials</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -974,29 +974,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>'19663411000001102</t>
+          <t>'19663311000001109</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>Adenosine 6mg/2ml solution for injection vials (Wockhardt UK Ltd)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Adenosine 6mg/2ml solution for injection (Wockhardt UK Ltd) 6 vials</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1011,19 +1006,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>'20009311000001102</t>
+          <t>'19663411000001102</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Adenosine 6mg/2ml solution for injection vials (A A H Pharmaceuticals Ltd)</t>
+          <t>Adenosine 6mg/2ml solution for injection vials (Wockhardt UK Ltd)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Adenosine 6mg/2ml solution for injection (Wockhardt UK Ltd) 6 vials</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1043,29 +1043,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>'20009411000001109</t>
+          <t>'20009311000001102</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>Adenosine 6mg/2ml solution for injection vials (A A H Pharmaceuticals Ltd)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Adenosine 6mg/2ml solution for injection (A A H Pharmaceuticals Ltd) 6 vials</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1080,19 +1075,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>'21855411000001109</t>
+          <t>'20009411000001109</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Adenosine 6mg/2ml solution for injection vials (Focus Pharmaceuticals Ltd)</t>
+          <t>Adenosine 6mg/2ml solution for injection vials (A A H Pharmaceuticals Ltd)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Adenosine 6mg/2ml solution for injection (A A H Pharmaceuticals Ltd) 6 vials</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1112,29 +1112,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>'21855511000001108</t>
+          <t>'21855411000001109</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Adenosine 6mg/2ml solution for injection vials (Focus Pharmaceuticals Ltd)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Adenosine 6mg/2ml solution for injection (Focus Pharmaceuticals Ltd) 6 vials</t>
+          <t>Adenosine 6mg/2ml solution for injection vials (Advanz Pharma)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1149,19 +1144,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>'24530711000001102</t>
+          <t>'21855511000001108</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Adenosine 6mg/2ml solution for injection vials (Alliance Healthcare (Distribution) Ltd)</t>
+          <t>Adenosine 6mg/2ml solution for injection vials (Advanz Pharma)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Adenosine 6mg/2ml solution for injection (Advanz Pharma) 6 vials</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1181,29 +1181,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>'24531011000001108</t>
+          <t>'24530711000001102</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>Adenosine 6mg/2ml solution for injection vials (Alliance Healthcare (Distribution) Ltd)</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Adenosine 6mg/2ml solution for injection (Alliance Healthcare (Distribution) Ltd) 6 vials</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1218,19 +1213,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>'34516211000001103</t>
+          <t>'24531011000001108</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Adenosine 6mg/2ml solution for injection vials (Peckforton Pharmaceuticals Ltd)</t>
+          <t>Adenosine 6mg/2ml solution for injection vials (Alliance Healthcare (Distribution) Ltd)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Adenosine 6mg/2ml solution for injection (Alliance Healthcare (Distribution) Ltd) 6 vials</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1250,17 +1250,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>'34516411000001104</t>
+          <t>'34516211000001103</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>Adenosine 6mg/2ml solution for injection vials (Peckforton Pharmaceuticals Ltd)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Adenosine 6mg/2ml solution for injection (Peckforton Pharmaceuticals Ltd) 5 vials</t>
         </is>
       </c>
     </row>
@@ -1272,39 +1267,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>'1106000X0AAAIAI</t>
+          <t>'0203020C0AAAAAA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Piloc HCl_Eye Dps 6%</t>
+          <t>Adenosine_I/V Inf 3mg/ml 2ml Vl</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>'9393611000001106</t>
+          <t>'34516411000001104</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye drops preservative free</t>
+          <t>Adenosine 6mg/2ml solution for injection vials (Peckforton Pharmaceuticals Ltd)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye drops preservative 1 ml</t>
+          <t>Adenosine 6mg/2ml solution for injection (Peckforton Pharmaceuticals Ltd) 5 vials</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1314,39 +1309,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>'1106000X0AAAIAI</t>
+          <t>'1106000X0AAA4A4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Piloc HCl_Eye Dps 6%</t>
+          <t>Piloc HCl_Eye Dps 6% P/F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>'20293311000001106</t>
+          <t>'36016311000001102</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Pilocarpine hydrochloride 6% eye drops preservative free</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Pilocarpine hydrochloride 6% eye drops preservative 10 mls</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1361,12 +1351,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>'9393711000001102</t>
+          <t>'9393611000001106</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye drops preservative free (Special Order)</t>
+          <t>Pilocarpine hydrochloride 6% eye drops preservative free</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pilocarpine hydrochloride 6% eye drops preservative 1 ml</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1373,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1393,24 +1388,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>'9393811000001105</t>
+          <t>'20293311000001106</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye drops preservative free (Special Order)</t>
+          <t>Pilocarpine hydrochloride 6% eye drops preservative free</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye drops preservative (Special Order) 1 ml</t>
+          <t>Pilocarpine hydrochloride 6% eye drops preservative 10 mls</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1430,49 +1425,49 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>'20293411000001104</t>
+          <t>'9393711000001102</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>Pilocarpine hydrochloride 6% eye drops preservative free (Special Order)</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Pilocarpine hydrochloride 6% eye drops preservative (Special Order) 10 mls</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>'1106000X0AAAIAI</t>
+          <t>'1106000X0AAA4A4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Piloc HCl_Eye Dps 6%</t>
+          <t>Piloc HCl_Eye Dps 6% P/F</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>'347208002</t>
+          <t>'9393811000001105</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye drops</t>
+          <t>Pilocarpine hydrochloride 6% eye drops preservative free (Special Order)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pilocarpine hydrochloride 6% eye drops preservative (Special Order) 1 ml</t>
         </is>
       </c>
     </row>
@@ -1484,39 +1479,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>'1106000X0AAAIAI</t>
+          <t>'1106000X0AAA4A4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Piloc HCl_Eye Dps 6%</t>
+          <t>Piloc HCl_Eye Dps 6% P/F</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>'9394111000001101</t>
+          <t>'20293411000001104</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye drops</t>
+          <t>Pilocarpine hydrochloride 6% eye drops preservative free (Special Order)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye 1 ml</t>
+          <t>Pilocarpine hydrochloride 6% eye drops preservative (Special Order) 10 mls</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1536,29 +1531,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>'20293111000001109</t>
+          <t>'347208002</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Pilocarpine hydrochloride 6% eye drops</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Pilocarpine hydrochloride 6% eye 10 mls</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1573,12 +1563,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>'9394311000001104</t>
+          <t>'9394111000001101</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye drops (Special Order)</t>
+          <t>Pilocarpine hydrochloride 6% eye drops</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pilocarpine hydrochloride 6% eye 1 ml</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1585,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1605,24 +1600,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>'9394411000001106</t>
+          <t>'20293111000001109</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye drops (Special Order)</t>
+          <t>Pilocarpine hydrochloride 6% eye drops</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pilocarpine hydrochloride 6% eye (Special Order) 1 ml</t>
+          <t>Pilocarpine hydrochloride 6% eye 10 mls</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1642,49 +1637,49 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>'20293211000001103</t>
+          <t>'9394311000001104</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>Pilocarpine hydrochloride 6% eye drops (Special Order)</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Pilocarpine hydrochloride 6% eye (Special Order) 10 mls</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>'1003020U0AAAIAI</t>
+          <t>'1106000X0AAAIAI</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Diclofenac Sod_Gel 2.32%</t>
+          <t>Piloc HCl_Eye Dps 6%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>'22480211000001104</t>
+          <t>'9394411000001106</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Diclofenac 2.32% gel</t>
+          <t>Pilocarpine hydrochloride 6% eye drops (Special Order)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Pilocarpine hydrochloride 6% eye (Special Order) 1 ml</t>
         </is>
       </c>
     </row>
@@ -1696,39 +1691,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>'1003020U0AAAIAI</t>
+          <t>'1106000X0AAAIAI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Diclofenac Sod_Gel 2.32%</t>
+          <t>Piloc HCl_Eye Dps 6%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>'22479411000001100</t>
+          <t>'20293211000001103</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Diclofenac 2.32% gel</t>
+          <t>Pilocarpine hydrochloride 6% eye drops (Special Order)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Diclofenac 2.32% 50 grams</t>
+          <t>Pilocarpine hydrochloride 6% eye (Special Order) 10 mls</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1748,17 +1743,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>'22479511000001101</t>
+          <t>'22480211000001104</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>Diclofenac 2.32% gel</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Diclofenac 2.32% 30 grams</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1760,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1785,7 +1775,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>'26352411000001101</t>
+          <t>'22479411000001100</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1795,39 +1785,44 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Diclofenac 2.32% 100 grams</t>
+          <t>Diclofenac 2.32% 50 grams</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>'1003020U0BBADAI</t>
+          <t>'1003020U0AAAIAI</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Voltarol 12 Hour Emulgel P_Gel 2.32%</t>
+          <t>Diclofenac Sod_Gel 2.32%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>'22479611000001102</t>
+          <t>'22479511000001101</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Voltarol 12 Hour Emulgel P 2.32% gel (GlaxoSmithKline Consumer Healthcare)</t>
+          <t>Diclofenac 2.32% gel</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Diclofenac 2.32% 30 grams</t>
         </is>
       </c>
     </row>
@@ -1839,39 +1834,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>'1003020U0BBADAI</t>
+          <t>'1003020U0AAAIAI</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Voltarol 12 Hour Emulgel P_Gel 2.32%</t>
+          <t>Diclofenac Sod_Gel 2.32%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>'22479711000001106</t>
+          <t>'26352411000001101</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Voltarol 12 Hour Emulgel P 2.32% gel (GlaxoSmithKline Consumer Healthcare)</t>
+          <t>Diclofenac 2.32% gel</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Voltarol 12 Hour Emulgel P 2.32% (GlaxoSmithKline Consumer Healthcare) 50 grams</t>
+          <t>Diclofenac 2.32% 100 grams</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1891,17 +1886,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>'22479911000001108</t>
+          <t>'22479611000001102</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>Voltarol 12 Hour Emulgel P 2.32% gel (GlaxoSmithKline Consumer Healthcare)</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Voltarol 12 Hour Emulgel P 2.32% (GlaxoSmithKline Consumer Healthcare) 30 grams</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1903,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1928,7 +1918,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>'26352611000001103</t>
+          <t>'22479711000001106</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1938,39 +1928,44 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Voltarol 12 Hour Emulgel P 2.32% (GlaxoSmithKline Consumer Healthcare) 100 grams</t>
+          <t>Voltarol 12 Hour Emulgel P 2.32% (GlaxoSmithKline Consumer Healthcare) 50 grams</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Pack</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>'1305020C0AAFVFV</t>
+          <t>'1003020U0BBADAI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Coal Tar 10%/Salic Acid 5%/Aq_Crm</t>
+          <t>Voltarol 12 Hour Emulgel P_Gel 2.32%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>'28789311000001103</t>
+          <t>'22479911000001108</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous cream</t>
+          <t>Voltarol 12 Hour Emulgel P 2.32% gel (GlaxoSmithKline Consumer Healthcare)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Voltarol 12 Hour Emulgel P 2.32% (GlaxoSmithKline Consumer Healthcare) 30 grams</t>
         </is>
       </c>
     </row>
@@ -1982,32 +1977,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>'1305020C0AAFVFV</t>
+          <t>'1003020U0BBADAI</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Coal Tar 10%/Salic Acid 5%/Aq_Crm</t>
+          <t>Voltarol 12 Hour Emulgel P_Gel 2.32%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>'28781611000001107</t>
+          <t>'26352611000001103</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous cream</t>
+          <t>Voltarol 12 Hour Emulgel P 2.32% gel (GlaxoSmithKline Consumer Healthcare)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous 1 gram</t>
+          <t>Voltarol 12 Hour Emulgel P 2.32% (GlaxoSmithKline Consumer Healthcare) 100 grams</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2014,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>VMP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2034,12 +2029,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>'28781711000001103</t>
+          <t>'28789311000001103</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous cream (Special Order)</t>
+          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous cream</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2046,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>VMPP</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2066,17 +2061,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>'28781811000001106</t>
+          <t>'28781611000001107</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous cream (Special Order)</t>
+          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous cream</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous (Special Order) 1 gram</t>
+          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous 1 gram</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2083,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2103,12 +2098,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>'28946311000001106</t>
+          <t>'28781711000001103</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Coal tar 10% / Salicylic acid 5% in Aqueous cream</t>
+          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous cream (Special Order)</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2115,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VMP</t>
+          <t>AMPP</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2135,17 +2130,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>'28942411000001100</t>
+          <t>'28781811000001106</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Coal tar 10% / Salicylic acid 5% in Aqueous cream</t>
+          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous cream (Special Order)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Coal tar 10% / Salicylic acid 5% in Aqueous 1 gram</t>
+          <t>Coal tar solution 10% / Salicylic acid 5% in Aqueous (Special Order) 1 gram</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2152,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>VMP</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2172,12 +2167,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>'28942511000001101</t>
+          <t>'28946311000001106</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Coal tar 10% / Salicylic acid 5% in Aqueous cream (Special Order)</t>
+          <t>Coal tar 10% / Salicylic acid 5% in Aqueous cream</t>
         </is>
       </c>
     </row>
@@ -2189,30 +2184,99 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>VMPP</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>'1305020C0AAFVFV</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Coal Tar 10%/Salic Acid 5%/Aq_Crm</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>'28942411000001100</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Coal tar 10% / Salicylic acid 5% in Aqueous cream</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Coal tar 10% / Salicylic acid 5% in Aqueous 1 gram</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Presentation</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>AMP</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>'1305020C0AAFVFV</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Coal Tar 10%/Salic Acid 5%/Aq_Crm</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>'28942511000001101</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Coal tar 10% / Salicylic acid 5% in Aqueous cream (Special Order)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Pack</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>AMPP</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>'1305020C0AAFVFV</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Coal Tar 10%/Salic Acid 5%/Aq_Crm</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>'28942611000001102</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Coal tar 10% / Salicylic acid 5% in Aqueous cream (Special Order)</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Coal tar 10% / Salicylic acid 5% in Aqueous (Special Order) 1 gram</t>
         </is>
